--- a/BMW_IAT/resources/reward.xlsx
+++ b/BMW_IAT/resources/reward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,14 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Response</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,12 +106,6 @@
   </si>
   <si>
     <t>{"missionStatusList":[{"missionId":1,"status":1},{"missionId":2,"status":1},{"missionId":3,"status":1},{"missionId":4,"status":0},{"missionId":5,"status":1},{"missionId":6,"status":1}]}</t>
-  </si>
-  <si>
-    <t>JSONObject["missionId"] is not a number.</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>missionId</t>
@@ -133,7 +119,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -206,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -500,6 +485,61 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -514,7 +554,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -540,112 +580,130 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,18 +1048,18 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
-    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
-    <col min="5" max="14" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
-    <col min="17" max="16384" style="3" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="10.83203125" style="3" collapsed="1"/>
+    <col min="5" max="14" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1009,44 +1067,44 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
+        <v>9</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1059,130 +1117,126 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="A4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="42"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="43"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16" ht="34">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="43"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="42"/>
     </row>
     <row r="7" spans="1:16" ht="18" thickBot="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="44"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/BMW_IAT/resources/reward.xlsx
+++ b/BMW_IAT/resources/reward.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,18 +101,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"missionStatusList":[{"missionId":1,"status":1},{"missionId":2,"status":1},{"missionId":3,"status":1},{"missionId":4,"status":0},{"missionId":5,"status":1},{"missionId":6,"status":1}]}</t>
+  </si>
+  <si>
+    <t>missionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status验证失败</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>NotNull</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"missionStatusList":[{"missionId":1,"status":1},{"missionId":2,"status":1},{"missionId":3,"status":1},{"missionId":4,"status":0},{"missionId":5,"status":1},{"missionId":6,"status":1}]}</t>
-  </si>
-  <si>
-    <t>missionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -616,6 +619,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -664,18 +670,36 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,27 +707,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1051,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1069,20 +1072,20 @@
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1091,20 +1094,20 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1121,14 +1124,14 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1137,19 +1140,19 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -1163,17 +1166,19 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="18"/>
-      <c r="O4" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="41"/>
+      <c r="O4" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="28"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="38"/>
-      <c r="E5" s="47"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="16" t="s">
         <v>15</v>
       </c>
@@ -1185,22 +1190,22 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="19"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="42"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="49"/>
     </row>
     <row r="6" spans="1:16" ht="34">
-      <c r="A6" s="28"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="38"/>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>19</v>
@@ -1210,16 +1215,16 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="42"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:16" ht="18" thickBot="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="15" t="s">
         <v>17</v>
       </c>
@@ -1227,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1235,8 +1240,8 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="43"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/BMW_IAT/resources/reward.xlsx
+++ b/BMW_IAT/resources/reward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,67 +61,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>reward.list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户完成任务情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward.list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missionStatusList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSONArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"missionStatusList":[{"missionId":1,"status":1},{"missionId":2,"status":1},{"missionId":3,"status":1},{"missionId":4,"status":0},{"missionId":5,"status":1},{"missionId":6,"status":1}]}</t>
+  </si>
+  <si>
+    <t>missionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status验证失败</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>NotNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Exception</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reward.list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前用户完成任务情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward.list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>missionStatusList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSONArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"missionStatusList":[{"missionId":1,"status":1},{"missionId":2,"status":1},{"missionId":3,"status":1},{"missionId":4,"status":0},{"missionId":5,"status":1},{"missionId":6,"status":1}]}</t>
-  </si>
-  <si>
-    <t>missionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status验证失败</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>NotNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -194,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -227,7 +231,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -238,7 +253,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -251,81 +279,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -374,17 +327,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -470,7 +412,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -480,73 +422,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -556,169 +487,140 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1048,68 +950,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="10.83203125" style="3" collapsed="1"/>
-    <col min="5" max="14" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
+    <col min="7" max="14" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="15" max="17" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="20" max="21" style="3" width="10.83203125" collapsed="true"/>
+    <col min="22" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="35"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19" ht="18" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="37"/>
     </row>
-    <row r="3" spans="1:16" ht="18" thickBot="1">
+    <row r="3" spans="1:19" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1122,140 +1033,152 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="41"/>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="38"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="35"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" ht="34">
+      <c r="A6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="18" thickBot="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="49"/>
-    </row>
-    <row r="6" spans="1:16" ht="34">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="49"/>
-    </row>
-    <row r="7" spans="1:16" ht="18" thickBot="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="50"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C1:P2"/>
+  <mergeCells count="10">
+    <mergeCell ref="C1:S2"/>
+    <mergeCell ref="G3:S3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="P4:P7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F4:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BMW_IAT/resources/reward.xlsx
+++ b/BMW_IAT/resources/reward.xlsx
@@ -19,41 +19,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户完成任务情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward.list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missionStatusList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSONArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"missionStatusList":[{"missionId":1,"status":1},{"missionId":2,"status":1},{"missionId":3,"status":1},{"missionId":4,"status":0},{"missionId":5,"status":1},{"missionId":6,"status":1}]}</t>
+  </si>
+  <si>
+    <t>missionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Interface:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestTime</t>
   </si>
   <si>
     <t>ArgCount:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Params</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
+  </si>
+  <si>
+    <t>reward.list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,64 +120,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reward.list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前用户完成任务情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward.list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>missionStatusList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSONArray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"missionStatusList":[{"missionId":1,"status":1},{"missionId":2,"status":1},{"missionId":3,"status":1},{"missionId":4,"status":0},{"missionId":5,"status":1},{"missionId":6,"status":1}]}</t>
-  </si>
-  <si>
-    <t>missionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status验证失败</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>NotNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>2015/03/02 11:16:52</t>
+  </si>
+  <si>
+    <t>2015/03/02 16:14:34</t>
   </si>
 </sst>
 </file>
@@ -126,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +182,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -187,18 +197,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FF00CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CCFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -474,6 +484,120 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -490,21 +614,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,6 +664,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -582,31 +712,61 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -950,226 +1110,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
-    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
-    <col min="7" max="14" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
-    <col min="15" max="17" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
-    <col min="20" max="21" style="3" width="10.83203125" collapsed="true"/>
-    <col min="22" max="16384" style="3" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="3" max="4" style="1" width="10.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="7" max="19" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="20" max="16384" style="1" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="35"/>
+    <row r="1" spans="1:19" ht="17" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="44"/>
     </row>
     <row r="2" spans="1:19" ht="18" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="37"/>
+      <c r="A2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51"/>
     </row>
     <row r="3" spans="1:19" ht="18" thickBot="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
       <c r="S3" s="35"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="16"/>
+      <c r="C4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="17"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="34">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19" ht="18" thickBot="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="18"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C1:S2"/>
+  <mergeCells count="12">
     <mergeCell ref="G3:S3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -1179,6 +1339,9 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F4:F7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:S2"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BMW_IAT/resources/reward.xlsx
+++ b/BMW_IAT/resources/reward.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>2015/03/02 16:14:34</t>
+  </si>
+  <si>
+    <t>2015/03/02 17:49:07</t>
+  </si>
+  <si>
+    <t>2015/03/02 17:50:28</t>
+  </si>
+  <si>
+    <t>2015/03/02 17:51:13</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1171,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="49"/>

--- a/BMW_IAT/resources/reward.xlsx
+++ b/BMW_IAT/resources/reward.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>2015/03/02 17:51:13</t>
+  </si>
+  <si>
+    <t>2015/03/04 15:27:38</t>
+  </si>
+  <si>
+    <t>2015/03/04 15:28:34</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1177,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="49"/>
